--- a/testdata/FCfiles/stg/ManageBilling/Upload_Bills.xlsx
+++ b/testdata/FCfiles/stg/ManageBilling/Upload_Bills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="101">
   <si>
     <t>Carrier Code</t>
   </si>
@@ -317,6 +317,33 @@
   </si>
   <si>
     <t>51526987+3</t>
+  </si>
+  <si>
+    <t>58570625</t>
+  </si>
+  <si>
+    <t>58570625+2</t>
+  </si>
+  <si>
+    <t>58570625+3</t>
+  </si>
+  <si>
+    <t>58570628</t>
+  </si>
+  <si>
+    <t>58570628+2</t>
+  </si>
+  <si>
+    <t>58570628+3</t>
+  </si>
+  <si>
+    <t>58570828</t>
+  </si>
+  <si>
+    <t>58570828+2</t>
+  </si>
+  <si>
+    <t>58570828+3</t>
   </si>
 </sst>
 </file>
@@ -438,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -456,6 +483,26 @@
     <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -962,11 +1009,11 @@
       <c r="B2" s="1">
         <v>44325</v>
       </c>
-      <c r="C2" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>89</v>
+      <c r="C2" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="113" t="s">
+        <v>98</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>63</v>
@@ -985,11 +1032,11 @@
       <c r="B3" s="1">
         <v>44325</v>
       </c>
-      <c r="C3" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>89</v>
+      <c r="C3" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="115" t="s">
+        <v>98</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>64</v>

--- a/testdata/FCfiles/stg/ManageBilling/Upload_Bills.xlsx
+++ b/testdata/FCfiles/stg/ManageBilling/Upload_Bills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
   <si>
     <t>Carrier Code</t>
   </si>
@@ -344,6 +344,15 @@
   </si>
   <si>
     <t>58570828+3</t>
+  </si>
+  <si>
+    <t>59070066</t>
+  </si>
+  <si>
+    <t>59070066+2</t>
+  </si>
+  <si>
+    <t>59070066+3</t>
   </si>
 </sst>
 </file>
@@ -465,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -483,6 +492,10 @@
     <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -1009,11 +1022,11 @@
       <c r="B2" s="1">
         <v>44325</v>
       </c>
-      <c r="C2" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="113" t="s">
-        <v>98</v>
+      <c r="C2" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="117" t="s">
+        <v>101</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>63</v>
@@ -1032,11 +1045,11 @@
       <c r="B3" s="1">
         <v>44325</v>
       </c>
-      <c r="C3" s="116" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="115" t="s">
-        <v>98</v>
+      <c r="C3" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>101</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>64</v>
